--- a/workbooks/ufc.xlsx
+++ b/workbooks/ufc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidhi_kumar\Desktop\python-db-task1\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09A337-AF42-425C-B52D-76EDB4907139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FA427-F299-4CE5-8DEB-FA81BA32DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Origin</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -54,6 +51,48 @@
   </si>
   <si>
     <t>Dustin</t>
+  </si>
+  <si>
+    <t>Win via</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gane</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>Dagestan</t>
+  </si>
+  <si>
+    <t>Khabib</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Charles</t>
   </si>
 </sst>
 </file>
@@ -374,7 +413,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,40 +426,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -433,7 +472,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,40 +485,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +531,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,40 +544,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
